--- a/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
+++ b/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Hallazgos de Auditorías de Calidad</t>
   </si>
@@ -148,22 +148,34 @@
     <t>Jovanny Zepeda</t>
   </si>
   <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>Plan de Configuración</t>
+  </si>
+  <si>
+    <t>El plan de configuración indica que la línea base esta conformada por casos de uso</t>
+  </si>
+  <si>
+    <t>Vianey Castillo</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>No se envió correo de creación de línea base</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Analisis de Requerimientos</t>
   </si>
   <si>
-    <t>Fisica</t>
-  </si>
-  <si>
     <t>Estimación</t>
   </si>
   <si>
     <t>Entrega </t>
-  </si>
-  <si>
-    <t>Funcional</t>
   </si>
   <si>
     <t>Plan de proyecto</t>
@@ -186,9 +198,6 @@
   <si>
     <t>Plan de Métricas</t>
   </si>
-  <si>
-    <t>Plan de Configuración</t>
-  </si>
 </sst>
 </file>
 
@@ -199,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -317,33 +326,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -370,6 +354,13 @@
       <b val="true"/>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="1"/>
@@ -427,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -501,6 +492,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="dotted">
         <color rgb="FFA6A6A6"/>
@@ -541,7 +543,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,23 +688,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,7 +716,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -722,59 +724,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,7 +780,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -801,7 +795,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFA1A1A1"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
@@ -809,11 +803,11 @@
       <rgbColor rgb="FFA6A6A6"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFB1CBE9"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD1D1D1"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -823,20 +817,20 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFC7C7C7"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFF4B196"/>
-      <rgbColor rgb="FFA2C1E4"/>
-      <rgbColor rgb="FFF7BCA4"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFA1A1A1"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFE77A2F"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF8B8B8B"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5897D0"/>
@@ -851,33 +845,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri Light"/>
-              </a:rPr>
-              <a:t>No Conformidades por Proceso</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1069,11 +1040,11 @@
         </c:ser>
         <c:gapWidth val="80"/>
         <c:overlap val="0"/>
-        <c:axId val="66909750"/>
-        <c:axId val="20685344"/>
+        <c:axId val="6900284"/>
+        <c:axId val="966394"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66909750"/>
+        <c:axId val="6900284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,14 +1061,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20685344"/>
+        <c:crossAx val="966394"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20685344"/>
+        <c:axId val="966394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1092,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66909750"/>
+        <c:crossAx val="6900284"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1157,33 +1128,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="808080"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>No Conformidades por Estado</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1204,6 +1152,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9360">
               <a:solidFill>
                 <a:srgbClr val="5897d0"/>
@@ -1246,7 +1195,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,6 +1216,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9360">
               <a:solidFill>
                 <a:srgbClr val="e77a2f"/>
@@ -1321,6 +1271,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9360">
               <a:solidFill>
                 <a:srgbClr val="a1a1a1"/>
@@ -1362,11 +1313,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="18075523"/>
-        <c:axId val="11811611"/>
+        <c:axId val="48241201"/>
+        <c:axId val="50181251"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18075523"/>
+        <c:axId val="48241201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,14 +1334,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="11811611"/>
+        <c:crossAx val="50181251"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11811611"/>
+        <c:axId val="50181251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1365,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18075523"/>
+        <c:crossAx val="48241201"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1455,15 +1406,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1569960</xdr:colOff>
+      <xdr:colOff>1596960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2363040</xdr:colOff>
+      <xdr:colOff>2389680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1476,8 +1427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6357600" y="57600"/>
-          <a:ext cx="2486880" cy="824400"/>
+          <a:off x="6384600" y="48600"/>
+          <a:ext cx="2486520" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1492,15 +1443,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1369800</xdr:colOff>
+      <xdr:colOff>1396440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1508,8 +1459,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="331200" y="5515560"/>
-        <a:ext cx="7520040" cy="3180600"/>
+        <a:off x="358200" y="5506560"/>
+        <a:ext cx="7519680" cy="3180240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1522,15 +1473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>903240</xdr:colOff>
+      <xdr:colOff>930240</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>931320</xdr:colOff>
+      <xdr:colOff>957960</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1538,8 +1489,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1064520" y="10963800"/>
-        <a:ext cx="6348240" cy="2742480"/>
+        <a:off x="1091520" y="10954800"/>
+        <a:ext cx="6347880" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1557,15 +1508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1870920</xdr:colOff>
+      <xdr:colOff>1897560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1578,8 +1529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12292920" y="74520"/>
-          <a:ext cx="2530440" cy="824400"/>
+          <a:off x="12319920" y="65520"/>
+          <a:ext cx="2530080" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1599,7 +1550,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:74"/>
+  <dimension ref="1:57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
@@ -7847,7 +7798,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -7858,7 +7809,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" s="16" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
@@ -7867,22 +7818,16 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" s="16" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="0"/>
       <c r="C20" s="19" t="s">
@@ -7895,11 +7840,8 @@
         <v>10</v>
       </c>
       <c r="F20" s="0"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
       <c r="C21" s="20" t="s">
@@ -7908,11 +7850,8 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="0"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
       <c r="B22" s="0"/>
       <c r="C22" s="22" t="s">
@@ -7921,11 +7860,8 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="0"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
       <c r="B23" s="0"/>
       <c r="C23" s="22" t="s">
@@ -7934,11 +7870,8 @@
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="0"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
       <c r="B24" s="0"/>
       <c r="C24" s="22" t="s">
@@ -7947,11 +7880,8 @@
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="0"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="0"/>
       <c r="C25" s="22" t="s">
@@ -7960,11 +7890,8 @@
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="0"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="0"/>
       <c r="C26" s="22" t="s">
@@ -7973,11 +7900,8 @@
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="0"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
       <c r="B27" s="0"/>
       <c r="C27" s="22" t="s">
@@ -7986,11 +7910,8 @@
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="0"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
@@ -8005,154 +7926,112 @@
         <v>0</v>
       </c>
       <c r="F28" s="0"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="0"/>
       <c r="C37" s="23"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
       <c r="B42" s="0"/>
       <c r="C42" s="16" t="s">
@@ -8161,99 +8040,72 @@
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
       <c r="B47" s="0"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="26"/>
       <c r="F47" s="0"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" s="16" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="s">
         <v>20</v>
       </c>
@@ -8262,24 +8114,15 @@
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" s="16" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="0"/>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" s="16" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="28" t="s">
         <v>21</v>
       </c>
@@ -8289,33 +8132,21 @@
       <c r="E53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" s="16" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="30" t="n">
         <f aca="false">COUNTIF('No Conformidades'!J4:J50,"Identificado")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="31" t="n">
         <f aca="false">D54/SUM(D$54:D$56)</f>
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" s="16" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="32" t="s">
         <v>25</v>
       </c>
@@ -8325,16 +8156,10 @@
       </c>
       <c r="E55" s="33" t="n">
         <f aca="false">D55/SUM(D$54:D$56)</f>
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="32" t="s">
         <v>10</v>
       </c>
@@ -8346,216 +8171,19 @@
         <f aca="false">D56/SUM(D$54:D$56)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="34" t="n">
         <f aca="false">SUM(D54:D56)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="34" t="n">
         <f aca="false">SUM(E54:E56)</f>
         <v>1</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8583,7 +8211,7 @@
   <dimension ref="1:54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10653,7 +10281,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="45" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="44" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="42"/>
       <c r="B3" s="43" t="s">
         <v>27</v>
@@ -10685,726 +10313,765 @@
       <c r="K3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="44"/>
     </row>
     <row r="4" s="37" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="49" t="n">
+      <c r="G4" s="48" t="n">
         <v>42458</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="48"/>
+      <c r="I4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" s="37" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" s="37" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" s="37" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37"/>
+      <c r="B5" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="48" t="n">
+        <v>42460</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37"/>
+      <c r="B6" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="48" t="n">
+        <v>42460</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="51"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="49"/>
-    </row>
-    <row r="8" s="37" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="51"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="49"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="52"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="49"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="53"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="49"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="48"/>
       <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="52"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="49"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="52"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="52"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="52"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="49"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="52"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="49"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="49"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="49"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="52"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="49"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="52"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="49"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="52"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="49"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="52"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="49"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="37"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="52"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="49"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="52"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="49"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="37"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="52"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="37"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="52"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="49"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="52"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="49"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="52"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="48"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="37"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="52"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="49"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="48"/>
       <c r="L32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="52"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="49"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="48"/>
       <c r="L33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="49"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="52"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="49"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="48"/>
       <c r="L35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="49"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="48"/>
       <c r="L36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="37"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="52"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="49"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="37"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="52"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="48"/>
       <c r="L38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="37"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="52"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="49"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="48"/>
       <c r="L39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="52"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="49"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="37"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="52"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="49"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="37"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="52"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="49"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="37"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="52"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="49"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="37"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="52"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="49"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="48"/>
       <c r="L44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="37"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="52"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="49"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="48"/>
       <c r="L45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="37"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="52"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="49"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="48"/>
       <c r="L46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="37"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="48"/>
       <c r="L47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="37"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="48"/>
       <c r="L48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="37"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="52"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="48"/>
       <c r="L49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="37"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="48"/>
       <c r="L50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="37"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="52"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="48"/>
       <c r="L51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="37"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="52"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="48"/>
       <c r="L52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="37"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="52"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="49"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="48"/>
       <c r="L53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="37"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="52"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="49"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="48"/>
       <c r="L54" s="0"/>
     </row>
   </sheetData>
@@ -11457,105 +11124,105 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="56" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>12</v>
+      <c r="C4" s="56" t="s">
+        <v>49</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>37</v>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="56" t="s">
+        <v>50</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>47</v>
+      <c r="C6" s="56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58"/>
-      <c r="C8" s="58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="58" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="56"/>
+      <c r="C8" s="56" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="58" t="s">
-        <v>54</v>
+      <c r="C13" s="56" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
+++ b/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
@@ -845,7 +845,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1040,11 +1040,11 @@
         </c:ser>
         <c:gapWidth val="80"/>
         <c:overlap val="0"/>
-        <c:axId val="6900284"/>
-        <c:axId val="966394"/>
+        <c:axId val="96785045"/>
+        <c:axId val="38160816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6900284"/>
+        <c:axId val="96785045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,14 +1061,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="966394"/>
+        <c:crossAx val="38160816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="966394"/>
+        <c:axId val="38160816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1092,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6900284"/>
+        <c:crossAx val="96785045"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1128,7 +1128,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1195,7 +1195,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1250,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,11 +1313,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="48241201"/>
-        <c:axId val="50181251"/>
+        <c:axId val="96890550"/>
+        <c:axId val="12081112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48241201"/>
+        <c:axId val="96890550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,14 +1334,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50181251"/>
+        <c:crossAx val="12081112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50181251"/>
+        <c:axId val="12081112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1365,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48241201"/>
+        <c:crossAx val="96890550"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1406,15 +1406,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1596960</xdr:colOff>
+      <xdr:colOff>1623960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2389680</xdr:colOff>
+      <xdr:colOff>2416320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1427,8 +1427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6384600" y="48600"/>
-          <a:ext cx="2486520" cy="824040"/>
+          <a:off x="6411600" y="39600"/>
+          <a:ext cx="2486160" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,15 +1443,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>223920</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1396440</xdr:colOff>
+      <xdr:colOff>1423080</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1459,8 +1459,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="358200" y="5506560"/>
-        <a:ext cx="7519680" cy="3180240"/>
+        <a:off x="385200" y="5497560"/>
+        <a:ext cx="7519320" cy="3179880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1473,15 +1473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>930240</xdr:colOff>
+      <xdr:colOff>957240</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>957960</xdr:colOff>
+      <xdr:colOff>984600</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1489,8 +1489,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1091520" y="10954800"/>
-        <a:ext cx="6347880" cy="2742120"/>
+        <a:off x="1118520" y="10945800"/>
+        <a:ext cx="6347520" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1508,15 +1508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1897560</xdr:colOff>
+      <xdr:colOff>1924200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1529,8 +1529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12319920" y="65520"/>
-          <a:ext cx="2530080" cy="824040"/>
+          <a:off x="12346920" y="56520"/>
+          <a:ext cx="2529720" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8139,11 +8139,11 @@
       </c>
       <c r="D54" s="30" t="n">
         <f aca="false">COUNTIF('No Conformidades'!J4:J50,"Identificado")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" s="31" t="n">
         <f aca="false">D54/SUM(D$54:D$56)</f>
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8152,11 +8152,11 @@
       </c>
       <c r="D55" s="30" t="n">
         <f aca="false">COUNTIF('No Conformidades'!J4:J50,"Corregido")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" s="33" t="n">
         <f aca="false">D55/SUM(D$54:D$56)</f>
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,7 +8211,7 @@
   <dimension ref="1:54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="K4" s="48"/>
     </row>
-    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37"/>
       <c r="B5" s="45" t="n">
         <v>2</v>
@@ -10362,12 +10362,14 @@
       <c r="G5" s="48" t="n">
         <v>42460</v>
       </c>
-      <c r="H5" s="48"/>
+      <c r="H5" s="48" t="n">
+        <v>42460</v>
+      </c>
       <c r="I5" s="48" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="0"/>
@@ -10392,12 +10394,14 @@
       <c r="G6" s="48" t="n">
         <v>42460</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="48" t="n">
+        <v>42460</v>
+      </c>
       <c r="I6" s="48" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="0"/>

--- a/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
+++ b/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>Hallazgos de Auditorías de Calidad</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Se cancela debido a la actualización de plantilla</t>
+  </si>
+  <si>
+    <t>Se sugiere ampliar y especificar los datos del cliente</t>
   </si>
 </sst>
 </file>
@@ -900,6 +903,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -910,11 +919,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="80"/>
-        <c:axId val="62996480"/>
-        <c:axId val="62998016"/>
+        <c:axId val="119629312"/>
+        <c:axId val="119630848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62996480"/>
+        <c:axId val="119629312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,14 +964,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62998016"/>
+        <c:crossAx val="119630848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62998016"/>
+        <c:axId val="119630848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1020,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62996480"/>
+        <c:crossAx val="119629312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1083,7 +1092,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1206,7 +1215,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19682539682539724"/>
+                  <c:x val="-0.19682539682539732"/>
                   <c:y val="0.24107283464566928"/>
                 </c:manualLayout>
               </c:layout>
@@ -1276,7 +1285,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,11 +1458,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="64699008"/>
-        <c:axId val="64697472"/>
+        <c:axId val="120201600"/>
+        <c:axId val="120195712"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="64697472"/>
+        <c:axId val="120195712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,12 +1511,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64699008"/>
+        <c:crossAx val="120201600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="64699008"/>
+        <c:axId val="120201600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1525,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="64697472"/>
+        <c:crossAx val="120195712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,8 +1546,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.56504753572470112"/>
-          <c:y val="0.40798556430446326"/>
-          <c:w val="0.35244444444444506"/>
+          <c:y val="0.4079855643044637"/>
+          <c:w val="0.35244444444444523"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1603,7 +1612,7 @@
       <c:oddHeader>&amp;A</c:oddHeader>
       <c:oddFooter>Page &amp;P</c:oddFooter>
     </c:headerFooter>
-    <c:pageMargins b="1" l="0.75000000000000122" r="0.75000000000000122" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000155" r="0.75000000000000155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3106,7 +3115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3117,7 +3126,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3262,7 +3271,9 @@
         <v>15</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="E21" s="39">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="36" customFormat="1" ht="15">
       <c r="C22" s="40" t="s">
@@ -3276,7 +3287,9 @@
         <v>19</v>
       </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="E23" s="39">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="36" customFormat="1" ht="15">
       <c r="C24" s="40" t="s">
@@ -3318,7 +3331,7 @@
       </c>
       <c r="E28" s="42">
         <f>SUM(E21:E27)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="36" customFormat="1"/>
@@ -3387,11 +3400,11 @@
       </c>
       <c r="D54" s="46">
         <f>COUNTIF('No Conformidades'!J4:J50,"Identificado")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="47">
         <f>D54/SUM(D$54:D$56)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="36" customFormat="1" ht="16.5" thickBot="1">
@@ -3417,7 +3430,7 @@
       </c>
       <c r="E56" s="49">
         <f>D56/SUM(D$54:D$56)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="36" customFormat="1" ht="15.75">
@@ -3426,7 +3439,7 @@
       </c>
       <c r="D57" s="51">
         <f>SUM(D54:D56)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="51">
         <f>SUM(E54:E56)</f>
@@ -3469,7 +3482,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.85546875" defaultRowHeight="12.75"/>
@@ -3669,7 +3682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="16.5">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="26.25" customHeight="1">
       <c r="B8" s="20">
         <v>5</v>
       </c>
@@ -3699,16 +3712,32 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="16.5">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="22"/>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="33">
+      <c r="B9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="22">
+        <v>42481</v>
+      </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="16.5">

--- a/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
+++ b/Proyectos/Viaticos/05. Calidad/Viaticos-ReporteNoConformidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Información" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Hallazgos de Auditorías de Calidad</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Se sugiere ampliar y especificar los datos del cliente</t>
+  </si>
+  <si>
+    <t>Vianey Castillo</t>
   </si>
 </sst>
 </file>
@@ -909,6 +912,9 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -919,11 +925,11 @@
           </c:extLst>
         </c:ser>
         <c:gapWidth val="80"/>
-        <c:axId val="119629312"/>
-        <c:axId val="119630848"/>
+        <c:axId val="49668096"/>
+        <c:axId val="49669632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119629312"/>
+        <c:axId val="49668096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,14 +970,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119630848"/>
+        <c:crossAx val="49669632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119630848"/>
+        <c:axId val="49669632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1026,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119629312"/>
+        <c:crossAx val="49668096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,7 +1098,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1215,7 +1221,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19682539682539732"/>
+                  <c:x val="-0.19682539682539749"/>
                   <c:y val="0.24107283464566928"/>
                 </c:manualLayout>
               </c:layout>
@@ -1285,7 +1291,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,7 +1451,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,11 +1464,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="120201600"/>
-        <c:axId val="120195712"/>
+        <c:axId val="49839488"/>
+        <c:axId val="49837952"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="120195712"/>
+        <c:axId val="49837952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,12 +1517,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120201600"/>
+        <c:crossAx val="49839488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="120201600"/>
+        <c:axId val="49839488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1531,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120195712"/>
+        <c:crossAx val="49837952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,8 +1552,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.56504753572470112"/>
-          <c:y val="0.4079855643044637"/>
-          <c:w val="0.35244444444444523"/>
+          <c:y val="0.40798556430446425"/>
+          <c:w val="0.3524444444444455"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1612,7 +1618,7 @@
       <c:oddHeader>&amp;A</c:oddHeader>
       <c:oddFooter>Page &amp;P</c:oddFooter>
     </c:headerFooter>
-    <c:pageMargins b="1" l="0.75000000000000155" r="0.75000000000000155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000002" r="0.750000000000002" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3125,9 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -3197,7 +3201,9 @@
       <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -3206,7 +3212,9 @@
       <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="18">
+        <v>42451</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -3296,7 +3304,9 @@
         <v>49</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="36" customFormat="1" ht="15">
       <c r="C25" s="40" t="s">
@@ -3331,7 +3341,7 @@
       </c>
       <c r="E28" s="42">
         <f>SUM(E21:E27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="36" customFormat="1"/>
@@ -3400,11 +3410,11 @@
       </c>
       <c r="D54" s="46">
         <f>COUNTIF('No Conformidades'!J4:J50,"Identificado")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="47">
         <f>D54/SUM(D$54:D$56)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="36" customFormat="1" ht="16.5" thickBot="1">
@@ -3426,11 +3436,11 @@
       </c>
       <c r="D56" s="46">
         <f>COUNTIF('No Conformidades'!J4:J50,"Cerrado")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" s="49">
         <f>D56/SUM(D$54:D$56)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="36" customFormat="1" ht="15.75">
@@ -3481,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.85546875" defaultRowHeight="12.75"/>
@@ -3731,12 +3741,14 @@
       <c r="G9" s="22">
         <v>42481</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="22">
+        <v>42476</v>
+      </c>
       <c r="I9" s="23" t="s">
         <v>53</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="22"/>
     </row>
